--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H2">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I2">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J2">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N2">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O2">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P2">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q2">
-        <v>88.52275888508879</v>
+        <v>69.80476463128244</v>
       </c>
       <c r="R2">
-        <v>796.704829965799</v>
+        <v>628.242881681542</v>
       </c>
       <c r="S2">
-        <v>0.001857523489640386</v>
+        <v>0.001225609840406064</v>
       </c>
       <c r="T2">
-        <v>0.001857523489640386</v>
+        <v>0.001225609840406064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H3">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I3">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J3">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O3">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P3">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q3">
-        <v>221.3499130811142</v>
+        <v>226.2251594197685</v>
       </c>
       <c r="R3">
-        <v>1992.149217730028</v>
+        <v>2036.026434777916</v>
       </c>
       <c r="S3">
-        <v>0.00464471135057773</v>
+        <v>0.003971989347673344</v>
       </c>
       <c r="T3">
-        <v>0.004644711350577731</v>
+        <v>0.003971989347673344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H4">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I4">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J4">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N4">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O4">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P4">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q4">
-        <v>32.93885021645</v>
+        <v>93.66621497534811</v>
       </c>
       <c r="R4">
-        <v>296.44965194805</v>
+        <v>842.995934778133</v>
       </c>
       <c r="S4">
-        <v>0.0006911746625319926</v>
+        <v>0.001644561591085583</v>
       </c>
       <c r="T4">
-        <v>0.0006911746625319927</v>
+        <v>0.001644561591085583</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H5">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I5">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J5">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N5">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O5">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P5">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q5">
-        <v>725.3230774984603</v>
+        <v>909.5901376140168</v>
       </c>
       <c r="R5">
-        <v>6527.907697486142</v>
+        <v>8186.311238526152</v>
       </c>
       <c r="S5">
-        <v>0.0152198674216715</v>
+        <v>0.01597029413800867</v>
       </c>
       <c r="T5">
-        <v>0.0152198674216715</v>
+        <v>0.01597029413800867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H6">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I6">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J6">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N6">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O6">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P6">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q6">
-        <v>11.36548512116022</v>
+        <v>14.98040490340878</v>
       </c>
       <c r="R6">
-        <v>102.289366090442</v>
+        <v>134.823644130679</v>
       </c>
       <c r="S6">
-        <v>0.0002384884503104837</v>
+        <v>0.0002630211814317487</v>
       </c>
       <c r="T6">
-        <v>0.0002384884503104837</v>
+        <v>0.0002630211814317487</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J7">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N7">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O7">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P7">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q7">
-        <v>3795.938561368504</v>
+        <v>2928.786768881125</v>
       </c>
       <c r="R7">
-        <v>34163.44705231654</v>
+        <v>26359.08091993013</v>
       </c>
       <c r="S7">
-        <v>0.07965234174554679</v>
+        <v>0.05142270593350243</v>
       </c>
       <c r="T7">
-        <v>0.07965234174554681</v>
+        <v>0.05142270593350243</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J8">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O8">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P8">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q8">
         <v>9491.690964025081</v>
@@ -948,10 +948,10 @@
         <v>85425.21867622573</v>
       </c>
       <c r="S8">
-        <v>0.199169559830041</v>
+        <v>0.1666520889949277</v>
       </c>
       <c r="T8">
-        <v>0.1991695598300411</v>
+        <v>0.1666520889949277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J9">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N9">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O9">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P9">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q9">
-        <v>1412.4486547699</v>
+        <v>3929.937627610546</v>
       </c>
       <c r="R9">
-        <v>12712.0378929291</v>
+        <v>35369.43864849491</v>
       </c>
       <c r="S9">
-        <v>0.02963821493127904</v>
+        <v>0.06900059407152617</v>
       </c>
       <c r="T9">
-        <v>0.02963821493127905</v>
+        <v>0.06900059407152617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I10">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J10">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N10">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O10">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P10">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q10">
-        <v>31102.53085199153</v>
+        <v>38163.52041612424</v>
       </c>
       <c r="R10">
-        <v>279922.7776679237</v>
+        <v>343471.6837451181</v>
       </c>
       <c r="S10">
-        <v>0.6526421269792887</v>
+        <v>0.6700629450382587</v>
       </c>
       <c r="T10">
-        <v>0.6526421269792888</v>
+        <v>0.6700629450382588</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I11">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J11">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N11">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O11">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P11">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q11">
-        <v>487.3626148059337</v>
+        <v>628.530328915737</v>
       </c>
       <c r="R11">
-        <v>4386.263533253404</v>
+        <v>5656.772960241633</v>
       </c>
       <c r="S11">
-        <v>0.01022660744396515</v>
+        <v>0.01103553547070581</v>
       </c>
       <c r="T11">
-        <v>0.01022660744396515</v>
+        <v>0.01103553547070581</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H12">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N12">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O12">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P12">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q12">
-        <v>0.1320769685715556</v>
+        <v>1.397540398360889</v>
       </c>
       <c r="R12">
-        <v>1.188692717144</v>
+        <v>12.577863585248</v>
       </c>
       <c r="S12">
-        <v>2.77144628852598E-06</v>
+        <v>2.453756951468211E-05</v>
       </c>
       <c r="T12">
-        <v>2.77144628852598E-06</v>
+        <v>2.453756951468212E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H13">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O13">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P13">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q13">
-        <v>0.3302566015964444</v>
+        <v>4.529186525944889</v>
       </c>
       <c r="R13">
-        <v>2.972309414368</v>
+        <v>40.762678733504</v>
       </c>
       <c r="S13">
-        <v>6.929962450340399E-06</v>
+        <v>7.952201550358023E-05</v>
       </c>
       <c r="T13">
-        <v>6.929962450340401E-06</v>
+        <v>7.952201550358025E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H14">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I14">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J14">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N14">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O14">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P14">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q14">
-        <v>0.0491451412</v>
+        <v>1.875263387550222</v>
       </c>
       <c r="R14">
-        <v>0.4423062708</v>
+        <v>16.877370487952</v>
       </c>
       <c r="S14">
-        <v>1.031240500527041E-06</v>
+        <v>3.292527771241535E-05</v>
       </c>
       <c r="T14">
-        <v>1.031240500527041E-06</v>
+        <v>3.292527771241535E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H15">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I15">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J15">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N15">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O15">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P15">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q15">
-        <v>1.082190326166222</v>
+        <v>18.21063318500978</v>
       </c>
       <c r="R15">
-        <v>9.739712935496001</v>
+        <v>163.895698665088</v>
       </c>
       <c r="S15">
-        <v>2.270821624216183E-05</v>
+        <v>0.0003197365015048137</v>
       </c>
       <c r="T15">
-        <v>2.270821624216184E-05</v>
+        <v>0.0003197365015048138</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H16">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I16">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J16">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N16">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O16">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P16">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q16">
-        <v>0.01695743377244444</v>
+        <v>0.2999182240195555</v>
       </c>
       <c r="R16">
-        <v>0.152616903952</v>
+        <v>2.699264016176</v>
       </c>
       <c r="S16">
-        <v>3.558274951329219E-07</v>
+        <v>5.265868721384506E-06</v>
       </c>
       <c r="T16">
-        <v>3.558274951329219E-07</v>
+        <v>5.265868721384507E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H17">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I17">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J17">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N17">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O17">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P17">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q17">
-        <v>23.14197568162189</v>
+        <v>23.62668031288844</v>
       </c>
       <c r="R17">
-        <v>208.277781134597</v>
+        <v>212.640122815996</v>
       </c>
       <c r="S17">
-        <v>0.0004856012619432735</v>
+        <v>0.0004148297331931324</v>
       </c>
       <c r="T17">
-        <v>0.0004856012619432737</v>
+        <v>0.0004148297331931324</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H18">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I18">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J18">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O18">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P18">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q18">
-        <v>57.86618458538711</v>
+        <v>76.56998126955645</v>
       </c>
       <c r="R18">
-        <v>520.795661268484</v>
+        <v>689.1298314260081</v>
       </c>
       <c r="S18">
-        <v>0.00121423912310226</v>
+        <v>0.001344391360953326</v>
       </c>
       <c r="T18">
-        <v>0.00121423912310226</v>
+        <v>0.001344391360953326</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H19">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I19">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J19">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N19">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O19">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P19">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q19">
-        <v>8.611006709349999</v>
+        <v>31.70301811101711</v>
       </c>
       <c r="R19">
-        <v>77.49906038414998</v>
+        <v>285.327162999154</v>
       </c>
       <c r="S19">
-        <v>0.0001806896603034238</v>
+        <v>0.0005566315017703168</v>
       </c>
       <c r="T19">
-        <v>0.0001806896603034239</v>
+        <v>0.0005566315017703168</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H20">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I20">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J20">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N20">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O20">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P20">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q20">
-        <v>189.6168762948026</v>
+        <v>307.8671708253529</v>
       </c>
       <c r="R20">
-        <v>1706.551886653223</v>
+        <v>2770.804537428176</v>
       </c>
       <c r="S20">
-        <v>0.003978838958318552</v>
+        <v>0.005405433799463483</v>
       </c>
       <c r="T20">
-        <v>0.003978838958318553</v>
+        <v>0.005405433799463484</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H21">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I21">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J21">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N21">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O21">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P21">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q21">
-        <v>2.971210834325111</v>
+        <v>5.070387952455778</v>
       </c>
       <c r="R21">
-        <v>26.740897508926</v>
+        <v>45.633491572102</v>
       </c>
       <c r="S21">
-        <v>6.234660992205663E-05</v>
+        <v>8.902425790031617E-05</v>
       </c>
       <c r="T21">
-        <v>6.234660992205664E-05</v>
+        <v>8.902425790031617E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H22">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I22">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J22">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9840236666666667</v>
+        <v>0.7592313333333333</v>
       </c>
       <c r="N22">
-        <v>2.952071</v>
+        <v>2.277694</v>
       </c>
       <c r="O22">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="P22">
-        <v>0.08200347561927523</v>
+        <v>0.05311309006881704</v>
       </c>
       <c r="Q22">
-        <v>0.2496084273103333</v>
+        <v>1.447058478229333</v>
       </c>
       <c r="R22">
-        <v>2.246475845793</v>
+        <v>13.023526304064</v>
       </c>
       <c r="S22">
-        <v>5.237675856250783E-06</v>
+        <v>2.540699220073156E-05</v>
       </c>
       <c r="T22">
-        <v>5.237675856250784E-06</v>
+        <v>2.540699220073156E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H23">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I23">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J23">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.381612000000001</v>
       </c>
       <c r="O23">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="P23">
-        <v>0.2050485370009561</v>
+        <v>0.1721303313829956</v>
       </c>
       <c r="Q23">
-        <v>0.6241423605106666</v>
+        <v>4.689666051541334</v>
       </c>
       <c r="R23">
-        <v>5.617281244596001</v>
+        <v>42.20699446387201</v>
       </c>
       <c r="S23">
-        <v>1.309673478470235E-05</v>
+        <v>8.233966393766086E-05</v>
       </c>
       <c r="T23">
-        <v>1.309673478470235E-05</v>
+        <v>8.233966393766086E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H24">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I24">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J24">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.36615</v>
+        <v>1.018760333333333</v>
       </c>
       <c r="N24">
-        <v>1.09845</v>
+        <v>3.056281</v>
       </c>
       <c r="O24">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="P24">
-        <v>0.03051305940608911</v>
+        <v>0.07126880433834142</v>
       </c>
       <c r="Q24">
-        <v>0.09287797514999999</v>
+        <v>1.941708294837333</v>
       </c>
       <c r="R24">
-        <v>0.83590177635</v>
+        <v>17.475374653536</v>
       </c>
       <c r="S24">
-        <v>1.948911474113824E-06</v>
+        <v>3.40918962469252E-05</v>
       </c>
       <c r="T24">
-        <v>1.948911474113825E-06</v>
+        <v>3.40918962469252E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H25">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I25">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J25">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.062729666666668</v>
+        <v>9.893154666666666</v>
       </c>
       <c r="N25">
-        <v>24.188189</v>
+        <v>29.679464</v>
       </c>
       <c r="O25">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804902</v>
       </c>
       <c r="P25">
-        <v>0.671906457173937</v>
+        <v>0.6920894749804903</v>
       </c>
       <c r="Q25">
-        <v>2.045200069976334</v>
+        <v>18.85587792324267</v>
       </c>
       <c r="R25">
-        <v>18.406800629787</v>
+        <v>169.702901309184</v>
       </c>
       <c r="S25">
-        <v>4.291559841607156E-05</v>
+        <v>0.0003310655032545605</v>
       </c>
       <c r="T25">
-        <v>4.291559841607156E-05</v>
+        <v>0.0003310655032545606</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H26">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I26">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J26">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.1263393333333333</v>
+        <v>0.1629343333333333</v>
       </c>
       <c r="N26">
-        <v>0.379018</v>
+        <v>0.488803</v>
       </c>
       <c r="O26">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="P26">
-        <v>0.01052847079974244</v>
+        <v>0.01139829922935564</v>
       </c>
       <c r="Q26">
-        <v>0.03204736163266667</v>
+        <v>0.3105450184853333</v>
       </c>
       <c r="R26">
-        <v>0.288426254694</v>
+        <v>2.794905166368</v>
       </c>
       <c r="S26">
-        <v>6.724680496114285E-07</v>
+        <v>5.452450596390116E-06</v>
       </c>
       <c r="T26">
-        <v>6.724680496114285E-07</v>
+        <v>5.452450596390116E-06</v>
       </c>
     </row>
   </sheetData>
